--- a/Templates/Custom Archetype Template/Playtest Results.xlsx
+++ b/Templates/Custom Archetype Template/Playtest Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samhu\Documents\Documents\Game Design\Custom Yu-Gi-Oh! Cards\Custom Archetype Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samhu\Documents\Documents\Game Design\Custom Yu-Gi-Oh! Cards\Templates\Custom Archetype Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E352BB-BA07-4996-A2A9-3B87339F350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7F9137-ABB2-4A53-B0F3-4E007AEBFA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{AD9CF55C-5A2C-43F9-8449-28DA4DBE7F5E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="4" xr2:uid="{AD9CF55C-5A2C-43F9-8449-28DA4DBE7F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Environment Changes" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="72">
   <si>
     <t>Deck</t>
   </si>
@@ -201,6 +201,51 @@
   </si>
   <si>
     <t>Must sort A:C by Date, Newest to Oldest for formula to work correctly</t>
+  </si>
+  <si>
+    <t>Match Win %</t>
+  </si>
+  <si>
+    <t>Duel Win %</t>
+  </si>
+  <si>
+    <t>Chaos Turbo</t>
+  </si>
+  <si>
+    <t>Chaos Warriors</t>
+  </si>
+  <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Empty Jar</t>
+  </si>
+  <si>
+    <t>Library FTK</t>
+  </si>
+  <si>
+    <t>Reasoning Gate</t>
+  </si>
+  <si>
+    <t>Rescue Cat</t>
+  </si>
+  <si>
+    <t>Chaos Return</t>
+  </si>
+  <si>
+    <t>Goat Control</t>
+  </si>
+  <si>
+    <t>Recruiter Chaos</t>
+  </si>
+  <si>
+    <t>Chaos Control (Angel)</t>
+  </si>
+  <si>
+    <t>Chaos Control (Thunder Dragon)</t>
+  </si>
+  <si>
+    <t>Chaos Control (Skilled White Magician)</t>
   </si>
 </sst>
 </file>
@@ -208,8 +253,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -252,9 +297,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -267,9 +312,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +696,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="F4" s="12"/>
+      <c r="F4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -751,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC8C623-D4B8-4C22-A988-D9BD9517564D}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,251 +833,251 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B2, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+        <v>38565</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B3, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
+        <v>38565</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B4, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>38565</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B5, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
+        <v>38565</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B6, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
+        <v>38565</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B7, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+        <v>38565</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B8, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
+        <v>38565</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B9, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B10, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+        <v>38565</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B11, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
+        <v>38565</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B12, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
+        <v>38565</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B13, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>38565</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B14, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
+        <v>38565</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>INDEX(Formats!A:A, MATCH(B15, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -1041,16 +1086,16 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>INDEX(Formats!A:A, MATCH(B16, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -1059,16 +1104,16 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>INDEX(Formats!A:A, MATCH(B17, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -1077,16 +1122,16 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f>INDEX(Formats!A:A, MATCH(B18, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
@@ -1095,16 +1140,16 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f>INDEX(Formats!A:A, MATCH(B19, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -1119,10 +1164,10 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -1137,10 +1182,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -1155,10 +1200,10 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -1173,10 +1218,10 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -1191,10 +1236,10 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -1208,22 +1253,256 @@
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
       <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B26, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B27, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B28, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B29, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B30, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B31, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B32, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B33, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B34, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B35, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B36, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B37, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B38, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
         <v>37</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
-    <sortCondition ref="A2:A26"/>
-    <sortCondition descending="1" ref="E2:E26"/>
-    <sortCondition ref="C2:C26"/>
-    <sortCondition ref="D2:D26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
+    <sortCondition ref="A2:A40"/>
+    <sortCondition descending="1" ref="E2:E40"/>
+    <sortCondition ref="C2:C40"/>
+    <sortCondition ref="D2:D40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1231,14 +1510,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E830D7-F746-4F8D-8170-0D055311D58C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1271,64 +1551,94 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
-        <f>INDEX(Formats!A:A, MATCH(C2, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A2" s="9">
+        <v>45608</v>
+      </c>
+      <c r="B2" s="4">
+        <v>38565</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <f>INDEX(Formats!A:A, MATCH(C3, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <f>INDEX(Formats!A:A, MATCH(C4, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <f>INDEX(Formats!A:A, MATCH(C5, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H16">
+    <sortCondition ref="B2:B16"/>
+    <sortCondition ref="D2:D16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226CDD82-E2CC-4FA6-A945-41CFC8AD47C7}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,12 +1651,14 @@
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1372,28 +1684,33 @@
         <v>45</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B2, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+        <v>38565</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1410,32 +1727,39 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="e">
+        <f>F2/SUM(F2:G2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2)</f>
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2)</f>
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="8" t="e">
+        <f>J2/SUM(J2:K2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B3, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
+        <v>38565</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1452,32 +1776,39 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I36" si="0">F3/SUM(F3:G3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3)</f>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3)</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="8" t="e">
+        <f t="shared" ref="M3:M36" si="1">J3/SUM(J3:K3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B4, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
+        <v>38565</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -1494,32 +1825,39 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4)</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4)</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B5, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
+        <v>38565</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -1536,32 +1874,39 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5)</f>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5)</f>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B6, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
+        <v>38565</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -1578,32 +1923,42 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J6">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6)</f>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6)</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B7, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
+        <v>38565</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7, 'Match Records'!H:H, "Win")</f>
@@ -1617,32 +1972,39 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7)</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7)</f>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B8, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
+        <v>38565</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -1659,32 +2021,39 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8)</f>
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8)</f>
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B9, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
+        <v>38565</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1701,32 +2070,39 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9)</f>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9)</f>
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B10, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -1743,32 +2119,39 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10)</f>
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10)</f>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B11, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+        <v>38565</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -1785,32 +2168,39 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11)</f>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11)</f>
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B12, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
+        <v>38565</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -1827,32 +2217,40 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12)</f>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12)</f>
         <v>0</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>INDEX(Formats!A:A, MATCH(B13, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1869,32 +2267,40 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13)</f>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13)</f>
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>INDEX(Formats!A:A, MATCH(B14, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -1911,32 +2317,40 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14)</f>
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14)</f>
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>INDEX(Formats!A:A, MATCH(B15, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -1953,32 +2367,40 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15)</f>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15)</f>
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>INDEX(Formats!A:A, MATCH(B16, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -1995,32 +2417,40 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16)</f>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16)</f>
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>INDEX(Formats!A:A, MATCH(B17, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -2037,20 +2467,28 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17)</f>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17)</f>
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f>INDEX(Formats!A:A, MATCH(B18, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -2058,14 +2496,11 @@
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18, 'Match Records'!H:H, "Win")</f>
@@ -2079,20 +2514,28 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18)</f>
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18)</f>
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f>INDEX(Formats!A:A, MATCH(B19, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -2101,10 +2544,10 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
@@ -2121,20 +2564,28 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19)</f>
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19)</f>
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f>INDEX(Formats!A:A, MATCH(B20, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -2143,10 +2594,10 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -2163,20 +2614,28 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20)</f>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20)</f>
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f>INDEX(Formats!A:A, MATCH(B21, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -2185,10 +2644,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -2205,20 +2664,28 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21)</f>
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21)</f>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f>INDEX(Formats!A:A, MATCH(B22, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -2227,10 +2694,10 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -2247,20 +2714,28 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22)</f>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22)</f>
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f>INDEX(Formats!A:A, MATCH(B23, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -2269,10 +2744,10 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -2289,20 +2764,28 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23)</f>
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23)</f>
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f>INDEX(Formats!A:A, MATCH(B24, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -2314,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
@@ -2331,20 +2814,28 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24)</f>
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24)</f>
         <v>0</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f>INDEX(Formats!A:A, MATCH(B25, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -2356,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
@@ -2373,25 +2864,583 @@
         <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25, 'Match Records'!H:H, "Draw")</f>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25">
         <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25)</f>
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25)</f>
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25)</f>
         <v>0</v>
       </c>
+      <c r="M25" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B26, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B27, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B28, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B29, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B30, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B31, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B32, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I32" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B33, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B34, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B35, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B36, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K25">
-    <sortCondition ref="A2:A25"/>
-    <sortCondition ref="E2:E25"/>
-    <sortCondition ref="C2:C25"/>
-    <sortCondition ref="D2:D25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L36">
+    <sortCondition ref="A13:A36"/>
+    <sortCondition ref="E13:E36"/>
+    <sortCondition ref="C13:C36"/>
+    <sortCondition ref="D13:D36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2399,10 +3448,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7D2B9-9D46-4B9E-9494-05F1699F9F2F}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,12 +3462,14 @@
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -2438,16 +3489,22 @@
         <v>45</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>INDEX(Formats!A:A, MATCH(B2, Formats!B:B, 0), 0)</f>
         <v>38565</v>
@@ -2470,9 +3527,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A2, 'Match Records Overview'!C:C, 'Format Overview'!C2)</f>
         <v>0</v>
       </c>
-      <c r="G2">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A2, 'Match Records Overview'!C:C, 'Format Overview'!C2)</f>
-        <v>0</v>
+      <c r="G2" t="e">
+        <f>D2/SUM(D2+E2)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A2, 'Match Records Overview'!C:C, 'Format Overview'!C2)</f>
@@ -2482,8 +3539,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A2, 'Match Records Overview'!C:C, 'Format Overview'!C2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A2, 'Match Records Overview'!C:C, 'Format Overview'!C2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="12" t="e">
+        <f>H2/SUM(H2+I2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>INDEX(Formats!A:A, MATCH(B3, Formats!B:B, 0), 0)</f>
         <v>38565</v>
@@ -2506,9 +3571,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A3, 'Match Records Overview'!C:C, 'Format Overview'!C3)</f>
         <v>0</v>
       </c>
-      <c r="G3">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A3, 'Match Records Overview'!C:C, 'Format Overview'!C3)</f>
-        <v>0</v>
+      <c r="G3" t="e">
+        <f t="shared" ref="G3:G19" si="0">D3/SUM(D3+E3)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="H3">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A3, 'Match Records Overview'!C:C, 'Format Overview'!C3)</f>
@@ -2518,8 +3583,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A3, 'Match Records Overview'!C:C, 'Format Overview'!C3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A3, 'Match Records Overview'!C:C, 'Format Overview'!C3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="e">
+        <f t="shared" ref="K3:K19" si="1">H3/SUM(H3+I3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>INDEX(Formats!A:A, MATCH(B4, Formats!B:B, 0), 0)</f>
         <v>38565</v>
@@ -2542,9 +3615,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A4, 'Match Records Overview'!C:C, 'Format Overview'!C4)</f>
         <v>0</v>
       </c>
-      <c r="G4">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A4, 'Match Records Overview'!C:C, 'Format Overview'!C4)</f>
-        <v>0</v>
+      <c r="G4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H4">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A4, 'Match Records Overview'!C:C, 'Format Overview'!C4)</f>
@@ -2554,8 +3627,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A4, 'Match Records Overview'!C:C, 'Format Overview'!C4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A4, 'Match Records Overview'!C:C, 'Format Overview'!C4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>INDEX(Formats!A:A, MATCH(B5, Formats!B:B, 0), 0)</f>
         <v>39448</v>
@@ -2578,9 +3659,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A5, 'Match Records Overview'!C:C, 'Format Overview'!C5)</f>
         <v>0</v>
       </c>
-      <c r="G5">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A5, 'Match Records Overview'!C:C, 'Format Overview'!C5)</f>
-        <v>0</v>
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H5">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A5, 'Match Records Overview'!C:C, 'Format Overview'!C5)</f>
@@ -2590,8 +3671,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A5, 'Match Records Overview'!C:C, 'Format Overview'!C5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A5, 'Match Records Overview'!C:C, 'Format Overview'!C5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>INDEX(Formats!A:A, MATCH(B6, Formats!B:B, 0), 0)</f>
         <v>39448</v>
@@ -2614,9 +3703,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A6, 'Match Records Overview'!C:C, 'Format Overview'!C6)</f>
         <v>0</v>
       </c>
-      <c r="G6">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A6, 'Match Records Overview'!C:C, 'Format Overview'!C6)</f>
-        <v>0</v>
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H6">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A6, 'Match Records Overview'!C:C, 'Format Overview'!C6)</f>
@@ -2626,8 +3715,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A6, 'Match Records Overview'!C:C, 'Format Overview'!C6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A6, 'Match Records Overview'!C:C, 'Format Overview'!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>INDEX(Formats!A:A, MATCH(B7, Formats!B:B, 0), 0)</f>
         <v>39448</v>
@@ -2650,9 +3747,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A7, 'Match Records Overview'!C:C, 'Format Overview'!C7)</f>
         <v>0</v>
       </c>
-      <c r="G7">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A7, 'Match Records Overview'!C:C, 'Format Overview'!C7)</f>
-        <v>0</v>
+      <c r="G7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H7">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A7, 'Match Records Overview'!C:C, 'Format Overview'!C7)</f>
@@ -2662,8 +3759,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A7, 'Match Records Overview'!C:C, 'Format Overview'!C7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A7, 'Match Records Overview'!C:C, 'Format Overview'!C7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>INDEX(Formats!A:A, MATCH(B8, Formats!B:B, 0), 0)</f>
         <v>39630</v>
@@ -2686,9 +3791,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
         <v>0</v>
       </c>
-      <c r="G8">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
-        <v>0</v>
+      <c r="G8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H8">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
@@ -2698,8 +3803,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f>INDEX(Formats!A:A, MATCH(B9, Formats!B:B, 0), 0)</f>
         <v>39630</v>
@@ -2722,9 +3835,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
         <v>0</v>
       </c>
-      <c r="G9">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
-        <v>0</v>
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H9">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
@@ -2734,8 +3847,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>INDEX(Formats!A:A, MATCH(B10, Formats!B:B, 0), 0)</f>
         <v>39630</v>
@@ -2758,9 +3879,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
         <v>0</v>
       </c>
-      <c r="G10">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
-        <v>0</v>
+      <c r="G10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H10">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
@@ -2770,8 +3891,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>INDEX(Formats!A:A, MATCH(B11, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -2794,9 +3923,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
         <v>0</v>
       </c>
-      <c r="G11">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
-        <v>0</v>
+      <c r="G11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H11">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
@@ -2806,8 +3935,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>INDEX(Formats!A:A, MATCH(B12, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -2830,9 +3967,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
         <v>0</v>
       </c>
-      <c r="G12">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
-        <v>0</v>
+      <c r="G12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H12">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
@@ -2842,8 +3979,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>INDEX(Formats!A:A, MATCH(B13, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -2866,9 +4011,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
         <v>0</v>
       </c>
-      <c r="G13">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
-        <v>0</v>
+      <c r="G13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H13">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
@@ -2878,8 +4023,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>INDEX(Formats!A:A, MATCH(B14, Formats!B:B, 0), 0)</f>
         <v>40817</v>
@@ -2902,9 +4055,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
         <v>0</v>
       </c>
-      <c r="G14">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
-        <v>0</v>
+      <c r="G14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H14">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
@@ -2914,8 +4067,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>INDEX(Formats!A:A, MATCH(B15, Formats!B:B, 0), 0)</f>
         <v>40817</v>
@@ -2938,9 +4099,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
         <v>0</v>
       </c>
-      <c r="G15">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
-        <v>0</v>
+      <c r="G15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H15">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
@@ -2950,8 +4111,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>INDEX(Formats!A:A, MATCH(B16, Formats!B:B, 0), 0)</f>
         <v>40817</v>
@@ -2974,9 +4143,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
         <v>0</v>
       </c>
-      <c r="G16">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
-        <v>0</v>
+      <c r="G16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H16">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
@@ -2986,8 +4155,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>INDEX(Formats!A:A, MATCH(B17, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3010,9 +4187,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
         <v>0</v>
       </c>
-      <c r="G17">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
-        <v>0</v>
+      <c r="G17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H17">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
@@ -3022,8 +4199,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f>INDEX(Formats!A:A, MATCH(B18, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3046,9 +4231,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
         <v>0</v>
       </c>
-      <c r="G18">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
-        <v>0</v>
+      <c r="G18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H18">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
@@ -3058,8 +4243,16 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f>INDEX(Formats!A:A, MATCH(B19, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3082,9 +4275,9 @@
         <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
         <v>0</v>
       </c>
-      <c r="G19">
-        <f>SUMIFS('Match Records Overview'!I:I, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
-        <v>0</v>
+      <c r="G19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H19">
         <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
@@ -3094,12 +4287,21 @@
         <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
         <v>0</v>
       </c>
+      <c r="J19">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J19">
     <sortCondition ref="A2:A19"/>
     <sortCondition ref="C2:C19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Templates/Custom Archetype Template/Playtest Results.xlsx
+++ b/Templates/Custom Archetype Template/Playtest Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samhu\Documents\Documents\Game Design\Custom Yu-Gi-Oh! Cards\Templates\Custom Archetype Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC7F9137-ABB2-4A53-B0F3-4E007AEBFA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A03656A-7941-41EB-BD60-1814A62307C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="4" xr2:uid="{AD9CF55C-5A2C-43F9-8449-28DA4DBE7F5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{AD9CF55C-5A2C-43F9-8449-28DA4DBE7F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Environment Changes" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="88">
   <si>
     <t>Deck</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t>Setting up spreadsheet</t>
-  </si>
-  <si>
     <t>Latest Change</t>
   </si>
   <si>
@@ -246,6 +243,57 @@
   </si>
   <si>
     <t>Chaos Control (Skilled White Magician)</t>
+  </si>
+  <si>
+    <t>Horus Last Wish Combo</t>
+  </si>
+  <si>
+    <t>New deck, tier uncertain</t>
+  </si>
+  <si>
+    <t>Aggro Bomb</t>
+  </si>
+  <si>
+    <t>Bazoo Return</t>
+  </si>
+  <si>
+    <t>Chaos Flip Control</t>
+  </si>
+  <si>
+    <t>Dimension Fusion Turbo</t>
+  </si>
+  <si>
+    <t>Strike Ninja</t>
+  </si>
+  <si>
+    <t>Gravekeepers</t>
+  </si>
+  <si>
+    <t>Monarch</t>
+  </si>
+  <si>
+    <t>PACMAN</t>
+  </si>
+  <si>
+    <t>Panda Burn</t>
+  </si>
+  <si>
+    <t>Stall Burn</t>
+  </si>
+  <si>
+    <t>"Pure advantage camels munch all noobs"</t>
+  </si>
+  <si>
+    <t>Spreadsheet update</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Horus Control</t>
+  </si>
+  <si>
+    <t>Casual</t>
   </si>
 </sst>
 </file>
@@ -256,7 +304,7 @@
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +314,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -290,10 +345,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -314,10 +370,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,7 +698,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,28 +723,28 @@
         <v>49</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>45552</v>
+        <v>45620</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="11">
         <f>MAX(A:A)</f>
-        <v>45552</v>
+        <v>45620</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,11 +753,11 @@
         <v>51</v>
       </c>
       <c r="F3" s="11">
-        <f>MAX(INDEX(A:A, MATCH(E3, B:B, 0), 0))</f>
-        <v>45552</v>
+        <f>MAX(INDEX(A:A, MATCH(E3, B:B, 1), 0))</f>
+        <v>45620</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -721,7 +787,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,17 +862,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC8C623-D4B8-4C22-A988-D9BD9517564D}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -835,249 +901,238 @@
       <c r="A2" s="4">
         <v>38565</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>59</v>
+      <c r="D2" t="s">
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>38565</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>60</v>
+      <c r="D3" t="s">
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>38565</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>61</v>
+      <c r="D4" t="s">
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>38565</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>69</v>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>38565</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>38565</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>71</v>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>38565</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>66</v>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>38565</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>62</v>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>38565</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>67</v>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>38565</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>63</v>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>38565</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>64</v>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>38565</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>68</v>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>38565</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="12">
-        <v>2</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>65</v>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B15, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -1085,293 +1140,285 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B16, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B17, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B18, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B19, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B20, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B21, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>38565</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B22, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B23, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B24, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B25, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B26, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>INDEX(Formats!A:A, MATCH(B27, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f>INDEX(Formats!A:A, MATCH(B28, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f>INDEX(Formats!A:A, MATCH(B29, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f>INDEX(Formats!A:A, MATCH(B30, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f>INDEX(Formats!A:A, MATCH(B31, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f>INDEX(Formats!A:A, MATCH(B32, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1380,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -1398,10 +1445,10 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -1416,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
@@ -1434,10 +1481,10 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -1452,10 +1499,10 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -1473,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -1487,22 +1534,235 @@
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
       <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B39, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B40, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B41, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B42, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B43, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B44, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B45, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B46, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B47, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B48, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B49, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B50, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
         <v>37</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
-    <sortCondition ref="A2:A40"/>
-    <sortCondition descending="1" ref="E2:E40"/>
-    <sortCondition ref="C2:C40"/>
-    <sortCondition ref="D2:D40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F50">
+    <sortCondition ref="A2:A50"/>
+    <sortCondition descending="1" ref="E2:E50"/>
+    <sortCondition ref="C2:C50"/>
+    <sortCondition ref="D2:D50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1513,7 +1773,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,66 +1811,38 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>45608</v>
-      </c>
-      <c r="B2" s="4">
-        <v>38565</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -1635,27 +1867,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226CDD82-E2CC-4FA6-A945-41CFC8AD47C7}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="13" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1683,8 +1915,8 @@
       <c r="H1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>57</v>
+      <c r="I1" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>46</v>
@@ -1695,55 +1927,55 @@
       <c r="L1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>58</v>
+      <c r="M1" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>38565</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>59</v>
+      <c r="D2" t="s">
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F3,'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F3,'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F3,'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="e">
         <f>F2/SUM(F2:G2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J2">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F3,'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F3,'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F3,'Match Records'!B:B, 'Match Records Overview'!A2, 'Match Records'!D:D, 'Match Records Overview'!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="15" t="e">
         <f>J2/SUM(J2:K2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1752,48 +1984,48 @@
       <c r="A3" s="4">
         <v>38565</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>60</v>
+      <c r="D3" t="s">
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F4,'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F4,'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="e">
-        <f t="shared" ref="I3:I36" si="0">F3/SUM(F3:G3)</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F4,'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="e">
+        <f t="shared" ref="I3:I47" si="0">F3/SUM(F3:G3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F4,'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F4,'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3)</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="e">
-        <f t="shared" ref="M3:M36" si="1">J3/SUM(J3:K3)</f>
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F4,'Match Records'!B:B, 'Match Records Overview'!A3, 'Match Records'!D:D, 'Match Records Overview'!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="15" t="e">
+        <f t="shared" ref="M3:M47" si="1">J3/SUM(J3:K3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1801,47 +2033,47 @@
       <c r="A4" s="4">
         <v>38565</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>61</v>
+      <c r="D4" t="s">
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="F4">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F5,'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F5,'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F5,'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J4">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F5,'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F5,'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F5,'Match Records'!B:B, 'Match Records Overview'!A4, 'Match Records'!D:D, 'Match Records Overview'!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1850,47 +2082,47 @@
       <c r="A5" s="4">
         <v>38565</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>69</v>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
       <c r="F5">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F6,'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F6,'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F6,'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J5">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F6,'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F6,'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5)</f>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F6,'Match Records'!B:B, 'Match Records Overview'!A5, 'Match Records'!D:D, 'Match Records Overview'!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1899,47 +2131,47 @@
       <c r="A6" s="4">
         <v>38565</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>66</v>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F7,'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F7,'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I6" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F7,'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J6">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F7,'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F7,'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6)</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F7,'Match Records'!B:B, 'Match Records Overview'!A6, 'Match Records'!D:D, 'Match Records Overview'!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1948,47 +2180,47 @@
       <c r="A7" s="4">
         <v>38565</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>62</v>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
       <c r="F7">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F8,'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F8,'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I7" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F8,'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J7">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F8,'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F8,'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7)</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F8,'Match Records'!B:B, 'Match Records Overview'!A7, 'Match Records'!D:D, 'Match Records Overview'!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1997,47 +2229,47 @@
       <c r="A8" s="4">
         <v>38565</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>67</v>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F9,'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F9,'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I8" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F9,'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J8">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F9,'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F9,'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8)</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F9,'Match Records'!B:B, 'Match Records Overview'!A8, 'Match Records'!D:D, 'Match Records Overview'!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2046,47 +2278,47 @@
       <c r="A9" s="4">
         <v>38565</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>63</v>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="F9">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F10,'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F10,'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F10,'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J9">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F10,'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F10,'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F10,'Match Records'!B:B, 'Match Records Overview'!A9, 'Match Records'!D:D, 'Match Records Overview'!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2095,47 +2327,47 @@
       <c r="A10" s="4">
         <v>38565</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>64</v>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F11,'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F11,'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I10" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F11,'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J10">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F11,'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F11,'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F11,'Match Records'!B:B, 'Match Records Overview'!A10, 'Match Records'!D:D, 'Match Records Overview'!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2144,47 +2376,47 @@
       <c r="A11" s="4">
         <v>38565</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>68</v>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F12,'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F12,'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I11" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F12,'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J11">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F12,'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F12,'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F12,'Match Records'!B:B, 'Match Records Overview'!A11, 'Match Records'!D:D, 'Match Records Overview'!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2193,644 +2425,635 @@
       <c r="A12" s="4">
         <v>38565</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>65</v>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F13,'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F13,'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I12" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F13,'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J12">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F13,'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F13,'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F13,'Match Records'!B:B, 'Match Records Overview'!A12, 'Match Records'!D:D, 'Match Records Overview'!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B13, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F14,'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F14,'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I13" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F14,'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J13">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F14,'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13)</f>
         <v>0</v>
       </c>
       <c r="K13">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F14,'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13)</f>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F14,'Match Records'!B:B, 'Match Records Overview'!A13, 'Match Records'!D:D, 'Match Records Overview'!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B14, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F15,'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F15,'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I14" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F15,'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J14">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F15,'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14)</f>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F15,'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14)</f>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F15,'Match Records'!B:B, 'Match Records Overview'!A14, 'Match Records'!D:D, 'Match Records Overview'!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B15, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
       </c>
       <c r="F15">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F16,'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F16,'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I15" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F16,'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J15">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F16,'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15)</f>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F16,'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15)</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F16,'Match Records'!B:B, 'Match Records Overview'!A15, 'Match Records'!D:D, 'Match Records Overview'!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B16, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
       </c>
       <c r="F16">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F17,'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F17,'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I16" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F17,'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J16">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F17,'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16)</f>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F17,'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16)</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F17,'Match Records'!B:B, 'Match Records Overview'!A16, 'Match Records'!D:D, 'Match Records Overview'!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B17, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>38565</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F18,'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F18,'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I17" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F18,'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J17">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F18,'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17)</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F18,'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17)</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F18,'Match Records'!B:B, 'Match Records Overview'!A17, 'Match Records'!D:D, 'Match Records Overview'!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B18, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F19,'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F19,'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I18" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F19,'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J18">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F19,'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18)</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F19,'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18)</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F19,'Match Records'!B:B, 'Match Records Overview'!A18, 'Match Records'!D:D, 'Match Records Overview'!D18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B19, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
       </c>
       <c r="F19">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F20,'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F20,'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H19">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I19" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F20,'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J19">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F20,'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19)</f>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F20,'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19)</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F20,'Match Records'!B:B, 'Match Records Overview'!A19, 'Match Records'!D:D, 'Match Records Overview'!D19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B20, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
       <c r="F20">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F21,'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F21,'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I20" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F21,'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J20">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F21,'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20)</f>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F21,'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20)</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F21,'Match Records'!B:B, 'Match Records Overview'!A20, 'Match Records'!D:D, 'Match Records Overview'!D20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B21, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
       </c>
       <c r="F21">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F22,'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F22,'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I21" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F22,'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F22,'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21)</f>
         <v>0</v>
       </c>
       <c r="K21">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F22,'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21)</f>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F22,'Match Records'!B:B, 'Match Records Overview'!A21, 'Match Records'!D:D, 'Match Records Overview'!D21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B22, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
       </c>
       <c r="F22">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F23,'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F23,'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I22" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F23,'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F23,'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22)</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F23,'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22)</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F23,'Match Records'!B:B, 'Match Records Overview'!A22, 'Match Records'!D:D, 'Match Records Overview'!D22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B23, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="F23">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F24,'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F24,'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I23" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F24,'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J23">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F24,'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23)</f>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F24,'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23)</f>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F24,'Match Records'!B:B, 'Match Records Overview'!A23, 'Match Records'!D:D, 'Match Records Overview'!D23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f>INDEX(Formats!A:A, MATCH(B24, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
+        <v>38565</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
       </c>
       <c r="F24">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F25,'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F25,'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I24" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F25,'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F25,'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25)</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F25,'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25)</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A24, 'Match Records'!D:D, 'Match Records Overview'!D24)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F25,'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2838,49 +3061,49 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f>INDEX(Formats!A:A, MATCH(B25, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
       </c>
       <c r="F25">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F26,'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F26,'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I25" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F26,'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J25">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F26,'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26)</f>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F26,'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26)</f>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A25, 'Match Records'!D:D, 'Match Records Overview'!D25)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F26,'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2888,49 +3111,49 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f>INDEX(Formats!A:A, MATCH(B26, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
       </c>
       <c r="F26">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F27,'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F27,'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I26" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F27,'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F27,'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27)</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F27,'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27)</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A26, 'Match Records'!D:D, 'Match Records Overview'!D26)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F27,'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2938,49 +3161,49 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f>INDEX(Formats!A:A, MATCH(B27, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
       </c>
       <c r="F27">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F28,'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F28,'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I27" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F28,'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F28,'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28)</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F28,'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28)</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A27, 'Match Records'!D:D, 'Match Records Overview'!D27)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F28,'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2988,49 +3211,49 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f>INDEX(Formats!A:A, MATCH(B28, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
       </c>
       <c r="F28">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F29,'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F29,'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I28" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F29,'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F29,'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29)</f>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F29,'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29)</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A28, 'Match Records'!D:D, 'Match Records Overview'!D28)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F29,'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3038,49 +3261,49 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f>INDEX(Formats!A:A, MATCH(B29, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40269</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
       </c>
       <c r="F29">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F30,'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F30,'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I29" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F30,'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J29">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F30,'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30)</f>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F30,'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30)</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A29, 'Match Records'!D:D, 'Match Records Overview'!D29)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F30,'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3093,44 +3316,41 @@
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F31,'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F31,'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I30" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F31,'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J30">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F31,'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31)</f>
         <v>0</v>
       </c>
       <c r="K30">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F31,'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31)</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A30, 'Match Records'!D:D, 'Match Records Overview'!D30)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F31,'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3144,43 +3364,43 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
       </c>
       <c r="F31">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F32,'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F32,'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I31" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F32,'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F32,'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32)</f>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F32,'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32)</f>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A31, 'Match Records'!D:D, 'Match Records Overview'!D31)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F32,'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3194,43 +3414,43 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
       </c>
       <c r="F32">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F33,'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F33,'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I32" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F33,'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J32">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F33,'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33)</f>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F33,'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33)</f>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A32, 'Match Records'!D:D, 'Match Records Overview'!D32)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F33,'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3244,43 +3464,43 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
       </c>
       <c r="F33">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F34,'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F34,'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I33" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F34,'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J33">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F34,'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34)</f>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F34,'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34)</f>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A33, 'Match Records'!D:D, 'Match Records Overview'!D33)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F34,'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3294,43 +3514,43 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
       </c>
       <c r="F34">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F35,'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F35,'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I34" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F35,'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J34">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F35,'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35)</f>
         <v>0</v>
       </c>
       <c r="K34">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F35,'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35)</f>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A34, 'Match Records'!D:D, 'Match Records Overview'!D34)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F35,'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3344,43 +3564,43 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
       <c r="F35">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35, 'Match Records'!H:H, "Win")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F36,'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36, 'Match Records'!H:H, "Win")</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35, 'Match Records'!H:H, "Lose")</f>
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F36,'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36, 'Match Records'!H:H, "Lose")</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I35" t="e">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F36,'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J35">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35)</f>
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F36,'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36)</f>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35)</f>
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F36,'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36)</f>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A35, 'Match Records'!D:D, 'Match Records Overview'!D35)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="8" t="e">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F36,'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3397,50 +3617,650 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F37,'Match Records'!B:B, 'Match Records Overview'!A37, 'Match Records'!D:D, 'Match Records Overview'!D37, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F37,'Match Records'!B:B, 'Match Records Overview'!A37, 'Match Records'!D:D, 'Match Records Overview'!D37, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F37,'Match Records'!B:B, 'Match Records Overview'!A37, 'Match Records'!D:D, 'Match Records Overview'!D37, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F37,'Match Records'!B:B, 'Match Records Overview'!A37, 'Match Records'!D:D, 'Match Records Overview'!D37)</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F37,'Match Records'!B:B, 'Match Records Overview'!A37, 'Match Records'!D:D, 'Match Records Overview'!D37)</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F37,'Match Records'!B:B, 'Match Records Overview'!A37, 'Match Records'!D:D, 'Match Records Overview'!D37)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B37, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F38,'Match Records'!B:B, 'Match Records Overview'!A38, 'Match Records'!D:D, 'Match Records Overview'!D38, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F38,'Match Records'!B:B, 'Match Records Overview'!A38, 'Match Records'!D:D, 'Match Records Overview'!D38, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F38,'Match Records'!B:B, 'Match Records Overview'!A38, 'Match Records'!D:D, 'Match Records Overview'!D38, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F38,'Match Records'!B:B, 'Match Records Overview'!A38, 'Match Records'!D:D, 'Match Records Overview'!D38)</f>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F38,'Match Records'!B:B, 'Match Records Overview'!A38, 'Match Records'!D:D, 'Match Records Overview'!D38)</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F38,'Match Records'!B:B, 'Match Records Overview'!A38, 'Match Records'!D:D, 'Match Records Overview'!D38)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B38, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F39,'Match Records'!B:B, 'Match Records Overview'!A39, 'Match Records'!D:D, 'Match Records Overview'!D39, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F39,'Match Records'!B:B, 'Match Records Overview'!A39, 'Match Records'!D:D, 'Match Records Overview'!D39, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F39,'Match Records'!B:B, 'Match Records Overview'!A39, 'Match Records'!D:D, 'Match Records Overview'!D39, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F39,'Match Records'!B:B, 'Match Records Overview'!A39, 'Match Records'!D:D, 'Match Records Overview'!D39)</f>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F39,'Match Records'!B:B, 'Match Records Overview'!A39, 'Match Records'!D:D, 'Match Records Overview'!D39)</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F39,'Match Records'!B:B, 'Match Records Overview'!A39, 'Match Records'!D:D, 'Match Records Overview'!D39)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B39, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F40,'Match Records'!B:B, 'Match Records Overview'!A40, 'Match Records'!D:D, 'Match Records Overview'!D40, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F40,'Match Records'!B:B, 'Match Records Overview'!A40, 'Match Records'!D:D, 'Match Records Overview'!D40, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F40,'Match Records'!B:B, 'Match Records Overview'!A40, 'Match Records'!D:D, 'Match Records Overview'!D40, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F40,'Match Records'!B:B, 'Match Records Overview'!A40, 'Match Records'!D:D, 'Match Records Overview'!D40)</f>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F40,'Match Records'!B:B, 'Match Records Overview'!A40, 'Match Records'!D:D, 'Match Records Overview'!D40)</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F40,'Match Records'!B:B, 'Match Records Overview'!A40, 'Match Records'!D:D, 'Match Records Overview'!D40)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B40, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F41,'Match Records'!B:B, 'Match Records Overview'!A41, 'Match Records'!D:D, 'Match Records Overview'!D41, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F41,'Match Records'!B:B, 'Match Records Overview'!A41, 'Match Records'!D:D, 'Match Records Overview'!D41, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F41,'Match Records'!B:B, 'Match Records Overview'!A41, 'Match Records'!D:D, 'Match Records Overview'!D41, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F41,'Match Records'!B:B, 'Match Records Overview'!A41, 'Match Records'!D:D, 'Match Records Overview'!D41)</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F41,'Match Records'!B:B, 'Match Records Overview'!A41, 'Match Records'!D:D, 'Match Records Overview'!D41)</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F41,'Match Records'!B:B, 'Match Records Overview'!A41, 'Match Records'!D:D, 'Match Records Overview'!D41)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B41, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F42,'Match Records'!B:B, 'Match Records Overview'!A42, 'Match Records'!D:D, 'Match Records Overview'!D42, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F42,'Match Records'!B:B, 'Match Records Overview'!A42, 'Match Records'!D:D, 'Match Records Overview'!D42, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F42,'Match Records'!B:B, 'Match Records Overview'!A42, 'Match Records'!D:D, 'Match Records Overview'!D42, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F42,'Match Records'!B:B, 'Match Records Overview'!A42, 'Match Records'!D:D, 'Match Records Overview'!D42)</f>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F42,'Match Records'!B:B, 'Match Records Overview'!A42, 'Match Records'!D:D, 'Match Records Overview'!D42)</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F42,'Match Records'!B:B, 'Match Records Overview'!A42, 'Match Records'!D:D, 'Match Records Overview'!D42)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B42, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F43,'Match Records'!B:B, 'Match Records Overview'!A43, 'Match Records'!D:D, 'Match Records Overview'!D43, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F43,'Match Records'!B:B, 'Match Records Overview'!A43, 'Match Records'!D:D, 'Match Records Overview'!D43, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F43,'Match Records'!B:B, 'Match Records Overview'!A43, 'Match Records'!D:D, 'Match Records Overview'!D43, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F43,'Match Records'!B:B, 'Match Records Overview'!A43, 'Match Records'!D:D, 'Match Records Overview'!D43)</f>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F43,'Match Records'!B:B, 'Match Records Overview'!A43, 'Match Records'!D:D, 'Match Records Overview'!D43)</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F43,'Match Records'!B:B, 'Match Records Overview'!A43, 'Match Records'!D:D, 'Match Records Overview'!D43)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B43, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F44,'Match Records'!B:B, 'Match Records Overview'!A44, 'Match Records'!D:D, 'Match Records Overview'!D44, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F44,'Match Records'!B:B, 'Match Records Overview'!A44, 'Match Records'!D:D, 'Match Records Overview'!D44, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F44,'Match Records'!B:B, 'Match Records Overview'!A44, 'Match Records'!D:D, 'Match Records Overview'!D44, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F44,'Match Records'!B:B, 'Match Records Overview'!A44, 'Match Records'!D:D, 'Match Records Overview'!D44)</f>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F44,'Match Records'!B:B, 'Match Records Overview'!A44, 'Match Records'!D:D, 'Match Records Overview'!D44)</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F44,'Match Records'!B:B, 'Match Records Overview'!A44, 'Match Records'!D:D, 'Match Records Overview'!D44)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B44, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F45,'Match Records'!B:B, 'Match Records Overview'!A45, 'Match Records'!D:D, 'Match Records Overview'!D45, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F45,'Match Records'!B:B, 'Match Records Overview'!A45, 'Match Records'!D:D, 'Match Records Overview'!D45, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F45,'Match Records'!B:B, 'Match Records Overview'!A45, 'Match Records'!D:D, 'Match Records Overview'!D45, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F45,'Match Records'!B:B, 'Match Records Overview'!A45, 'Match Records'!D:D, 'Match Records Overview'!D45)</f>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F45,'Match Records'!B:B, 'Match Records Overview'!A45, 'Match Records'!D:D, 'Match Records Overview'!D45)</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F45,'Match Records'!B:B, 'Match Records Overview'!A45, 'Match Records'!D:D, 'Match Records Overview'!D45)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B45, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F46,'Match Records'!B:B, 'Match Records Overview'!A46, 'Match Records'!D:D, 'Match Records Overview'!D46, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F46,'Match Records'!B:B, 'Match Records Overview'!A46, 'Match Records'!D:D, 'Match Records Overview'!D46, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F46,'Match Records'!B:B, 'Match Records Overview'!A46, 'Match Records'!D:D, 'Match Records Overview'!D46, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F46,'Match Records'!B:B, 'Match Records Overview'!A46, 'Match Records'!D:D, 'Match Records Overview'!D46)</f>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F46,'Match Records'!B:B, 'Match Records Overview'!A46, 'Match Records'!D:D, 'Match Records Overview'!D46)</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F46,'Match Records'!B:B, 'Match Records Overview'!A46, 'Match Records'!D:D, 'Match Records Overview'!D46)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B46, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F47,'Match Records'!B:B, 'Match Records Overview'!A47, 'Match Records'!D:D, 'Match Records Overview'!D47, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F47,'Match Records'!B:B, 'Match Records Overview'!A47, 'Match Records'!D:D, 'Match Records Overview'!D47, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F47,'Match Records'!B:B, 'Match Records Overview'!A47, 'Match Records'!D:D, 'Match Records Overview'!D47, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F47,'Match Records'!B:B, 'Match Records Overview'!A47, 'Match Records'!D:D, 'Match Records Overview'!D47)</f>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F47,'Match Records'!B:B, 'Match Records Overview'!A47, 'Match Records'!D:D, 'Match Records Overview'!D47)</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F47,'Match Records'!B:B, 'Match Records Overview'!A47, 'Match Records'!D:D, 'Match Records Overview'!D47)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B47, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F48,'Match Records'!B:B, 'Match Records Overview'!A48, 'Match Records'!D:D, 'Match Records Overview'!D48, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F48,'Match Records'!B:B, 'Match Records Overview'!A48, 'Match Records'!D:D, 'Match Records Overview'!D48, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F48,'Match Records'!B:B, 'Match Records Overview'!A48, 'Match Records'!D:D, 'Match Records Overview'!D48, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F48,'Match Records'!B:B, 'Match Records Overview'!A48, 'Match Records'!D:D, 'Match Records Overview'!D48)</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F48,'Match Records'!B:B, 'Match Records Overview'!A48, 'Match Records'!D:D, 'Match Records Overview'!D48)</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F48,'Match Records'!B:B, 'Match Records Overview'!A48, 'Match Records'!D:D, 'Match Records Overview'!D48)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B48, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
         <v>20</v>
       </c>
-      <c r="E36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36, 'Match Records'!H:H, "Win")</f>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36, 'Match Records'!H:H, "Lose")</f>
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f>COUNTIFS('Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36, 'Match Records'!H:H, "Draw")</f>
-        <v>0</v>
-      </c>
-      <c r="I36" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36">
-        <f>SUMIFS('Match Records'!E:E, 'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36)</f>
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <f>SUMIFS('Match Records'!F:F, 'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36)</f>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f>SUMIFS('Match Records'!G:G, 'Match Records'!B:B, 'Match Records Overview'!A36, 'Match Records'!D:D, 'Match Records Overview'!D36)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="8" t="e">
-        <f t="shared" si="1"/>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F49,'Match Records'!B:B, 'Match Records Overview'!#REF!, 'Match Records'!D:D, 'Match Records Overview'!#REF!, 'Match Records'!H:H, "Win")</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F49,'Match Records'!B:B, 'Match Records Overview'!#REF!, 'Match Records'!D:D, 'Match Records Overview'!#REF!, 'Match Records'!H:H, "Lose")</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>COUNTIFS('Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F49,'Match Records'!B:B, 'Match Records Overview'!#REF!, 'Match Records'!D:D, 'Match Records Overview'!#REF!, 'Match Records'!H:H, "Draw")</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="13" t="e">
+        <f t="shared" ref="I48" si="2">F48/SUM(F48:G48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J48">
+        <f>SUMIFS('Match Records'!E:E, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F49,'Match Records'!B:B, 'Match Records Overview'!#REF!, 'Match Records'!D:D, 'Match Records Overview'!#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f>SUMIFS('Match Records'!F:F, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F49,'Match Records'!B:B, 'Match Records Overview'!#REF!, 'Match Records'!D:D, 'Match Records Overview'!#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f>SUMIFS('Match Records'!G:G, 'Match Records'!A:A, "&gt;="&amp;'Test Environment Changes'!F49,'Match Records'!B:B, 'Match Records Overview'!#REF!, 'Match Records'!D:D, 'Match Records Overview'!#REF!)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="15" t="e">
+        <f t="shared" ref="M48" si="3">J48/SUM(J48:K48)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L36">
-    <sortCondition ref="A13:A36"/>
-    <sortCondition ref="E13:E36"/>
-    <sortCondition ref="C13:C36"/>
-    <sortCondition ref="D13:D36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E51">
+    <sortCondition ref="A2:A51"/>
+    <sortCondition ref="E2:E51"/>
+    <sortCondition ref="C2:C51"/>
+    <sortCondition ref="D2:D51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3448,17 +4268,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7D2B9-9D46-4B9E-9494-05F1699F9F2F}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -3489,7 +4309,7 @@
         <v>45</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>46</v>
@@ -3501,7 +4321,7 @@
         <v>48</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3543,7 +4363,7 @@
         <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A2, 'Match Records Overview'!C:C, 'Format Overview'!C2)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="e">
+      <c r="K2" t="e">
         <f>H2/SUM(H2+I2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3572,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="e">
-        <f t="shared" ref="G3:G19" si="0">D3/SUM(D3+E3)</f>
+        <f t="shared" ref="G3:G4" si="0">D3/SUM(D3+E3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3">
@@ -3587,7 +4407,7 @@
         <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A3, 'Match Records Overview'!C:C, 'Format Overview'!C3)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="e">
+      <c r="K3" t="e">
         <f t="shared" ref="K3:K19" si="1">H3/SUM(H3+I3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3631,7 +4451,7 @@
         <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A4, 'Match Records Overview'!C:C, 'Format Overview'!C4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="12" t="e">
+      <c r="K4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3639,13 +4459,13 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>INDEX(Formats!A:A, MATCH(B5, Formats!B:B, 0), 0)</f>
-        <v>39448</v>
+        <v>38565</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f>SUMIFS('Match Records Overview'!F:F, 'Match Records Overview'!A:A, 'Format Overview'!A5, 'Match Records Overview'!C:C, 'Format Overview'!C5)</f>
@@ -3660,22 +4480,22 @@
         <v>0</v>
       </c>
       <c r="G5" t="e">
-        <f t="shared" si="0"/>
+        <f>D8/SUM(D8+E8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H5">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A5, 'Match Records Overview'!C:C, 'Format Overview'!C5)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A5, 'Match Records Overview'!C:C, 'Format Overview'!C5)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A5, 'Match Records Overview'!C:C, 'Format Overview'!C5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3683,13 +4503,13 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>INDEX(Formats!A:A, MATCH(B6, Formats!B:B, 0), 0)</f>
-        <v>39448</v>
+        <v>38565</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
       </c>
       <c r="D6">
         <f>SUMIFS('Match Records Overview'!F:F, 'Match Records Overview'!A:A, 'Format Overview'!A6, 'Match Records Overview'!C:C, 'Format Overview'!C6)</f>
@@ -3704,22 +4524,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="e">
-        <f t="shared" si="0"/>
+        <f>D9/SUM(D9+E9)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H6">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A6, 'Match Records Overview'!C:C, 'Format Overview'!C6)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A6, 'Match Records Overview'!C:C, 'Format Overview'!C6)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A6, 'Match Records Overview'!C:C, 'Format Overview'!C6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3727,13 +4547,13 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>INDEX(Formats!A:A, MATCH(B7, Formats!B:B, 0), 0)</f>
-        <v>39448</v>
+        <v>38565</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
       </c>
       <c r="D7">
         <f>SUMIFS('Match Records Overview'!F:F, 'Match Records Overview'!A:A, 'Format Overview'!A7, 'Match Records Overview'!C:C, 'Format Overview'!C7)</f>
@@ -3748,22 +4568,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="e">
-        <f t="shared" si="0"/>
+        <f>D10/SUM(D10+E10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H7">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A7, 'Match Records Overview'!C:C, 'Format Overview'!C7)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A7, 'Match Records Overview'!C:C, 'Format Overview'!C7)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A7, 'Match Records Overview'!C:C, 'Format Overview'!C7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3771,10 +4591,10 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>INDEX(Formats!A:A, MATCH(B8, Formats!B:B, 0), 0)</f>
-        <v>39630</v>
+        <v>39448</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3792,22 +4612,22 @@
         <v>0</v>
       </c>
       <c r="G8" t="e">
-        <f t="shared" si="0"/>
+        <f>D11/SUM(D11+E11)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H8">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A8, 'Match Records Overview'!C:C, 'Format Overview'!C8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3815,10 +4635,10 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f>INDEX(Formats!A:A, MATCH(B9, Formats!B:B, 0), 0)</f>
-        <v>39630</v>
+        <v>39448</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3836,22 +4656,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="e">
-        <f t="shared" si="0"/>
+        <f>D12/SUM(D12+E12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H9">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A9, 'Match Records Overview'!C:C, 'Format Overview'!C9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3859,10 +4679,10 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>INDEX(Formats!A:A, MATCH(B10, Formats!B:B, 0), 0)</f>
-        <v>39630</v>
+        <v>39448</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3880,22 +4700,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="e">
-        <f t="shared" si="0"/>
+        <f>D13/SUM(D13+E13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H10">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A10, 'Match Records Overview'!C:C, 'Format Overview'!C10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3903,10 +4723,10 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>INDEX(Formats!A:A, MATCH(B11, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
+        <v>39630</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3924,22 +4744,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="e">
-        <f t="shared" si="0"/>
+        <f>D14/SUM(D14+E14)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H11">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A11, 'Match Records Overview'!C:C, 'Format Overview'!C11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3947,10 +4767,10 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>INDEX(Formats!A:A, MATCH(B12, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
+        <v>39630</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3968,22 +4788,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="e">
-        <f t="shared" si="0"/>
+        <f>D15/SUM(D15+E15)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H12">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A12, 'Match Records Overview'!C:C, 'Format Overview'!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3991,10 +4811,10 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>INDEX(Formats!A:A, MATCH(B13, Formats!B:B, 0), 0)</f>
-        <v>40269</v>
+        <v>39630</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -4012,22 +4832,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="e">
-        <f t="shared" si="0"/>
+        <f>D16/SUM(D16+E16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H13">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
         <v>0</v>
       </c>
       <c r="J13">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A13, 'Match Records Overview'!C:C, 'Format Overview'!C13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4035,10 +4855,10 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>INDEX(Formats!A:A, MATCH(B14, Formats!B:B, 0), 0)</f>
-        <v>40817</v>
+        <v>40269</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4056,22 +4876,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="e">
-        <f t="shared" si="0"/>
+        <f>D17/SUM(D17+E17)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H14">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A14, 'Match Records Overview'!C:C, 'Format Overview'!C14)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4079,10 +4899,10 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f>INDEX(Formats!A:A, MATCH(B15, Formats!B:B, 0), 0)</f>
-        <v>40817</v>
+        <v>40269</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4100,22 +4920,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="0"/>
+        <f>D18/SUM(D18+E18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H15">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A15, 'Match Records Overview'!C:C, 'Format Overview'!C15)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4123,10 +4943,10 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>INDEX(Formats!A:A, MATCH(B16, Formats!B:B, 0), 0)</f>
-        <v>40817</v>
+        <v>40269</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -4144,22 +4964,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="e">
-        <f t="shared" si="0"/>
+        <f>D19/SUM(D19+E19)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H16">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A16, 'Match Records Overview'!C:C, 'Format Overview'!C16)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4167,10 +4987,10 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f>INDEX(Formats!A:A, MATCH(B17, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40817</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4188,22 +5008,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="e">
-        <f t="shared" si="0"/>
+        <f>D20/SUM(D20+E20)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H17">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A20, 'Match Records Overview'!C:C, 'Format Overview'!C20)</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A20, 'Match Records Overview'!C:C, 'Format Overview'!C20)</f>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A17, 'Match Records Overview'!C:C, 'Format Overview'!C17)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A20, 'Match Records Overview'!C:C, 'Format Overview'!C20)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4211,10 +5031,10 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f>INDEX(Formats!A:A, MATCH(B18, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40817</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4232,22 +5052,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="e">
-        <f t="shared" si="0"/>
+        <f>D21/SUM(D21+E21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H18">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A21, 'Match Records Overview'!C:C, 'Format Overview'!C21)</f>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A21, 'Match Records Overview'!C:C, 'Format Overview'!C21)</f>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A18, 'Match Records Overview'!C:C, 'Format Overview'!C18)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="12" t="e">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A21, 'Match Records Overview'!C:C, 'Format Overview'!C21)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -4255,10 +5075,10 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f>INDEX(Formats!A:A, MATCH(B19, Formats!B:B, 0), 0)</f>
-        <v>41821</v>
+        <v>40817</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -4276,23 +5096,155 @@
         <v>0</v>
       </c>
       <c r="G19" t="e">
-        <f t="shared" si="0"/>
+        <f>D22/SUM(D22+E22)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H19">
-        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A22, 'Match Records Overview'!C:C, 'Format Overview'!C22)</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A22, 'Match Records Overview'!C:C, 'Format Overview'!C22)</f>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A19, 'Match Records Overview'!C:C, 'Format Overview'!C19)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A22, 'Match Records Overview'!C:C, 'Format Overview'!C22)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B20, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>SUMIFS('Match Records Overview'!F:F, 'Match Records Overview'!A:A, 'Format Overview'!A20, 'Match Records Overview'!C:C, 'Format Overview'!C20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>SUMIFS('Match Records Overview'!G:G, 'Match Records Overview'!A:A, 'Format Overview'!A20, 'Match Records Overview'!C:C, 'Format Overview'!C20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A20, 'Match Records Overview'!C:C, 'Format Overview'!C20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" ref="G20:G22" si="2">D23/SUM(D23+E23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20">
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A23, 'Match Records Overview'!C:C, 'Format Overview'!C23)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A23, 'Match Records Overview'!C:C, 'Format Overview'!C23)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A23, 'Match Records Overview'!C:C, 'Format Overview'!C23)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" ref="K20:K22" si="3">H20/SUM(H20+I20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B21, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>SUMIFS('Match Records Overview'!F:F, 'Match Records Overview'!A:A, 'Format Overview'!A21, 'Match Records Overview'!C:C, 'Format Overview'!C21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>SUMIFS('Match Records Overview'!G:G, 'Match Records Overview'!A:A, 'Format Overview'!A21, 'Match Records Overview'!C:C, 'Format Overview'!C21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A21, 'Match Records Overview'!C:C, 'Format Overview'!C21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21">
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A24, 'Match Records Overview'!C:C, 'Format Overview'!C24)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A24, 'Match Records Overview'!C:C, 'Format Overview'!C24)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A24, 'Match Records Overview'!C:C, 'Format Overview'!C24)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f>INDEX(Formats!A:A, MATCH(B22, Formats!B:B, 0), 0)</f>
+        <v>41821</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f>SUMIFS('Match Records Overview'!F:F, 'Match Records Overview'!A:A, 'Format Overview'!A22, 'Match Records Overview'!C:C, 'Format Overview'!C22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>SUMIFS('Match Records Overview'!G:G, 'Match Records Overview'!A:A, 'Format Overview'!A22, 'Match Records Overview'!C:C, 'Format Overview'!C22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>SUMIFS('Match Records Overview'!H:H, 'Match Records Overview'!A:A, 'Format Overview'!A22, 'Match Records Overview'!C:C, 'Format Overview'!C22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22">
+        <f>SUMIFS('Match Records Overview'!J:J, 'Match Records Overview'!A:A, 'Format Overview'!A25, 'Match Records Overview'!C:C, 'Format Overview'!C25)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>SUMIFS('Match Records Overview'!K:K, 'Match Records Overview'!A:A, 'Format Overview'!A25, 'Match Records Overview'!C:C, 'Format Overview'!C25)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>SUMIFS('Match Records Overview'!L:L, 'Match Records Overview'!A:A, 'Format Overview'!A25, 'Match Records Overview'!C:C, 'Format Overview'!C25)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Templates/Custom Archetype Template/Playtest Results.xlsx
+++ b/Templates/Custom Archetype Template/Playtest Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samhu\Documents\Documents\Game Design\Custom Yu-Gi-Oh! Cards\Templates\Custom Archetype Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A03656A-7941-41EB-BD60-1814A62307C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B75DB5-6BDB-427A-8B33-DB253A19F412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{AD9CF55C-5A2C-43F9-8449-28DA4DBE7F5E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{AD9CF55C-5A2C-43F9-8449-28DA4DBE7F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Environment Changes" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="90">
   <si>
     <t>Deck</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Casual</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Tengu Plant's date</t>
   </si>
 </sst>
 </file>
@@ -697,19 +703,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BB1FBB-F5E1-4E55-9B32-F360CDEA6ABD}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -729,48 +735,56 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <v>45620</v>
+        <v>45726</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="11">
         <f>MAX(A:A)</f>
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>45620</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
       <c r="E3" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="11">
         <f>MAX(INDEX(A:A, MATCH(E3, B:B, 1), 0))</f>
-        <v>45620</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="C7" s="11"/>
     </row>
@@ -787,16 +801,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -804,7 +818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>38565</v>
       </c>
@@ -812,7 +826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>39448</v>
       </c>
@@ -820,7 +834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>39630</v>
       </c>
@@ -828,7 +842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>40269</v>
       </c>
@@ -836,15 +850,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>40817</v>
+        <v>40787</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>41821</v>
       </c>
@@ -864,20 +878,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC8C623-D4B8-4C22-A988-D9BD9517564D}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -897,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>38565</v>
       </c>
@@ -914,7 +928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>38565</v>
       </c>
@@ -931,7 +945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>38565</v>
       </c>
@@ -948,7 +962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>38565</v>
       </c>
@@ -965,7 +979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>38565</v>
       </c>
@@ -982,7 +996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>38565</v>
       </c>
@@ -999,7 +1013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>38565</v>
       </c>
@@ -1016,7 +1030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>38565</v>
       </c>
@@ -1033,7 +1047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>38565</v>
       </c>
@@ -1050,7 +1064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>38565</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>38565</v>
       </c>
@@ -1087,7 +1101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>38565</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>38565</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>38565</v>
       </c>
@@ -1138,7 +1152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>38565</v>
       </c>
@@ -1155,7 +1169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>38565</v>
       </c>
@@ -1172,7 +1186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>38565</v>
       </c>
@@ -1189,7 +1203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>38565</v>
       </c>
@@ -1206,7 +1220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>38565</v>
       </c>
@@ -1223,7 +1237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>38565</v>
       </c>
@@ -1240,7 +1254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>38565</v>
       </c>
@@ -1257,7 +1271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>38565</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>38565</v>
       </c>
@@ -1294,7 +1308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>38565</v>
       </c>
@@ -1311,7 +1325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>38565</v>
       </c>
@@ -1328,7 +1342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f>INDEX(Formats!A:A, MATCH(B27, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -1346,7 +1360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f>INDEX(Formats!A:A, MATCH(B28, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -1364,7 +1378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f>INDEX(Formats!A:A, MATCH(B29, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -1382,7 +1396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f>INDEX(Formats!A:A, MATCH(B30, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -1400,7 +1414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f>INDEX(Formats!A:A, MATCH(B31, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -1418,7 +1432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f>INDEX(Formats!A:A, MATCH(B32, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1436,7 +1450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f>INDEX(Formats!A:A, MATCH(B33, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1454,7 +1468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f>INDEX(Formats!A:A, MATCH(B34, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1472,7 +1486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f>INDEX(Formats!A:A, MATCH(B35, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1490,7 +1504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f>INDEX(Formats!A:A, MATCH(B36, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1508,7 +1522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f>INDEX(Formats!A:A, MATCH(B37, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1526,7 +1540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f>INDEX(Formats!A:A, MATCH(B38, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1544,7 +1558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f>INDEX(Formats!A:A, MATCH(B39, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1562,7 +1576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>INDEX(Formats!A:A, MATCH(B40, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1580,7 +1594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f>INDEX(Formats!A:A, MATCH(B41, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1598,7 +1612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>INDEX(Formats!A:A, MATCH(B42, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1616,7 +1630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f>INDEX(Formats!A:A, MATCH(B43, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1634,7 +1648,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f>INDEX(Formats!A:A, MATCH(B44, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1652,7 +1666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f>INDEX(Formats!A:A, MATCH(B45, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1670,7 +1684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f>INDEX(Formats!A:A, MATCH(B46, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1688,7 +1702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f>INDEX(Formats!A:A, MATCH(B47, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1706,7 +1720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f>INDEX(Formats!A:A, MATCH(B48, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1724,7 +1738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f>INDEX(Formats!A:A, MATCH(B49, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1742,7 +1756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f>INDEX(Formats!A:A, MATCH(B50, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -1776,15 +1790,15 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1810,50 +1824,50 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
   </sheetData>
@@ -1873,24 +1887,24 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1931,7 +1945,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>38565</v>
       </c>
@@ -1980,7 +1994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>38565</v>
       </c>
@@ -2029,7 +2043,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>38565</v>
       </c>
@@ -2078,7 +2092,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>38565</v>
       </c>
@@ -2127,7 +2141,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>38565</v>
       </c>
@@ -2176,7 +2190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>38565</v>
       </c>
@@ -2225,7 +2239,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>38565</v>
       </c>
@@ -2274,7 +2288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>38565</v>
       </c>
@@ -2323,7 +2337,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>38565</v>
       </c>
@@ -2372,7 +2386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>38565</v>
       </c>
@@ -2421,7 +2435,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>38565</v>
       </c>
@@ -2470,7 +2484,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>38565</v>
       </c>
@@ -2519,7 +2533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>38565</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>38565</v>
       </c>
@@ -2617,7 +2631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>38565</v>
       </c>
@@ -2666,7 +2680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>38565</v>
       </c>
@@ -2715,7 +2729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>38565</v>
       </c>
@@ -2764,7 +2778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>38565</v>
       </c>
@@ -2813,7 +2827,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>38565</v>
       </c>
@@ -2862,7 +2876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>38565</v>
       </c>
@@ -2911,7 +2925,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>38565</v>
       </c>
@@ -2960,7 +2974,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>38565</v>
       </c>
@@ -3009,7 +3023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>38565</v>
       </c>
@@ -3058,7 +3072,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f>INDEX(Formats!A:A, MATCH(B25, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -3108,7 +3122,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f>INDEX(Formats!A:A, MATCH(B26, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -3158,7 +3172,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f>INDEX(Formats!A:A, MATCH(B27, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -3208,7 +3222,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f>INDEX(Formats!A:A, MATCH(B28, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -3258,7 +3272,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f>INDEX(Formats!A:A, MATCH(B29, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -3308,7 +3322,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f>INDEX(Formats!A:A, MATCH(B30, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3355,7 +3369,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f>INDEX(Formats!A:A, MATCH(B31, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3405,7 +3419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f>INDEX(Formats!A:A, MATCH(B32, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3455,7 +3469,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f>INDEX(Formats!A:A, MATCH(B33, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3505,7 +3519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f>INDEX(Formats!A:A, MATCH(B34, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3555,7 +3569,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f>INDEX(Formats!A:A, MATCH(B35, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3605,7 +3619,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f>INDEX(Formats!A:A, MATCH(B36, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3655,7 +3669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f>INDEX(Formats!A:A, MATCH(B37, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3705,7 +3719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f>INDEX(Formats!A:A, MATCH(B38, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3755,7 +3769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f>INDEX(Formats!A:A, MATCH(B39, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3805,7 +3819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f>INDEX(Formats!A:A, MATCH(B40, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3855,7 +3869,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f>INDEX(Formats!A:A, MATCH(B41, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3905,7 +3919,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f>INDEX(Formats!A:A, MATCH(B42, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -3955,7 +3969,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f>INDEX(Formats!A:A, MATCH(B43, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -4005,7 +4019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f>INDEX(Formats!A:A, MATCH(B44, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -4055,7 +4069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f>INDEX(Formats!A:A, MATCH(B45, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -4105,7 +4119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f>INDEX(Formats!A:A, MATCH(B46, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -4155,7 +4169,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f>INDEX(Formats!A:A, MATCH(B47, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -4205,7 +4219,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f>INDEX(Formats!A:A, MATCH(B48, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -4270,26 +4284,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7D2B9-9D46-4B9E-9494-05F1699F9F2F}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -4324,7 +4338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f>INDEX(Formats!A:A, MATCH(B2, Formats!B:B, 0), 0)</f>
         <v>38565</v>
@@ -4368,7 +4382,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>INDEX(Formats!A:A, MATCH(B3, Formats!B:B, 0), 0)</f>
         <v>38565</v>
@@ -4412,7 +4426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f>INDEX(Formats!A:A, MATCH(B4, Formats!B:B, 0), 0)</f>
         <v>38565</v>
@@ -4456,7 +4470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f>INDEX(Formats!A:A, MATCH(B5, Formats!B:B, 0), 0)</f>
         <v>38565</v>
@@ -4480,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="e">
-        <f>D8/SUM(D8+E8)</f>
+        <f t="shared" ref="G5:G19" si="2">D8/SUM(D8+E8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H5">
@@ -4500,7 +4514,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f>INDEX(Formats!A:A, MATCH(B6, Formats!B:B, 0), 0)</f>
         <v>38565</v>
@@ -4524,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="e">
-        <f>D9/SUM(D9+E9)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H6">
@@ -4544,7 +4558,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f>INDEX(Formats!A:A, MATCH(B7, Formats!B:B, 0), 0)</f>
         <v>38565</v>
@@ -4568,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="e">
-        <f>D10/SUM(D10+E10)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H7">
@@ -4588,7 +4602,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f>INDEX(Formats!A:A, MATCH(B8, Formats!B:B, 0), 0)</f>
         <v>39448</v>
@@ -4612,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="e">
-        <f>D11/SUM(D11+E11)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H8">
@@ -4632,7 +4646,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f>INDEX(Formats!A:A, MATCH(B9, Formats!B:B, 0), 0)</f>
         <v>39448</v>
@@ -4656,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="e">
-        <f>D12/SUM(D12+E12)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H9">
@@ -4676,7 +4690,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>INDEX(Formats!A:A, MATCH(B10, Formats!B:B, 0), 0)</f>
         <v>39448</v>
@@ -4700,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="e">
-        <f>D13/SUM(D13+E13)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10">
@@ -4720,7 +4734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f>INDEX(Formats!A:A, MATCH(B11, Formats!B:B, 0), 0)</f>
         <v>39630</v>
@@ -4744,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="e">
-        <f>D14/SUM(D14+E14)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H11">
@@ -4764,7 +4778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f>INDEX(Formats!A:A, MATCH(B12, Formats!B:B, 0), 0)</f>
         <v>39630</v>
@@ -4788,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="e">
-        <f>D15/SUM(D15+E15)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H12">
@@ -4808,7 +4822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f>INDEX(Formats!A:A, MATCH(B13, Formats!B:B, 0), 0)</f>
         <v>39630</v>
@@ -4832,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="e">
-        <f>D16/SUM(D16+E16)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13">
@@ -4852,7 +4866,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f>INDEX(Formats!A:A, MATCH(B14, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -4876,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="e">
-        <f>D17/SUM(D17+E17)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14">
@@ -4896,7 +4910,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f>INDEX(Formats!A:A, MATCH(B15, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -4920,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="e">
-        <f>D18/SUM(D18+E18)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15">
@@ -4940,7 +4954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f>INDEX(Formats!A:A, MATCH(B16, Formats!B:B, 0), 0)</f>
         <v>40269</v>
@@ -4964,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="e">
-        <f>D19/SUM(D19+E19)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16">
@@ -4984,10 +4998,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f>INDEX(Formats!A:A, MATCH(B17, Formats!B:B, 0), 0)</f>
-        <v>40817</v>
+        <v>40787</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -5008,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="e">
-        <f>D20/SUM(D20+E20)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17">
@@ -5028,10 +5042,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f>INDEX(Formats!A:A, MATCH(B18, Formats!B:B, 0), 0)</f>
-        <v>40817</v>
+        <v>40787</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -5052,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="e">
-        <f>D21/SUM(D21+E21)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H18">
@@ -5072,10 +5086,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f>INDEX(Formats!A:A, MATCH(B19, Formats!B:B, 0), 0)</f>
-        <v>40817</v>
+        <v>40787</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -5096,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="e">
-        <f>D22/SUM(D22+E22)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19">
@@ -5116,7 +5130,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f>INDEX(Formats!A:A, MATCH(B20, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -5140,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="e">
-        <f t="shared" ref="G20:G22" si="2">D23/SUM(D23+E23)</f>
+        <f t="shared" ref="G20:G22" si="3">D23/SUM(D23+E23)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H20">
@@ -5156,11 +5170,11 @@
         <v>0</v>
       </c>
       <c r="K20" t="e">
-        <f t="shared" ref="K20:K22" si="3">H20/SUM(H20+I20)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K20:K22" si="4">H20/SUM(H20+I20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f>INDEX(Formats!A:A, MATCH(B21, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -5184,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21">
@@ -5200,11 +5214,11 @@
         <v>0</v>
       </c>
       <c r="K21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f>INDEX(Formats!A:A, MATCH(B22, Formats!B:B, 0), 0)</f>
         <v>41821</v>
@@ -5228,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H22">
@@ -5244,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
